--- a/CASUAL/LA CENRO/AMBION, MARIETA.xlsx
+++ b/CASUAL/LA CENRO/AMBION, MARIETA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -735,17 +735,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -755,6 +752,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1285,7 +1285,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1392,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,7 +1518,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1679,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1738,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1921,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,7 +2107,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2173,7 +2173,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2231,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2297,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2353,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2428,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,7 +2471,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2537,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2593,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,10 +3068,10 @@
   </sheetPr>
   <dimension ref="A2:K105"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3960" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,14 +3101,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3120,14 +3120,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3141,16 +3141,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3183,18 +3183,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3241,7 +3241,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>41.403999999999996</v>
+        <v>42.653999999999996</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3251,7 +3251,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>73.5</v>
+        <v>74.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5065,15 +5065,17 @@
       <c r="B94" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C94" s="14"/>
+      <c r="C94" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="41">
         <v>5</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="41"/>
       <c r="I94" s="10"/>
@@ -5104,7 +5106,9 @@
       <c r="A96" s="42">
         <v>45292</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C96" s="14"/>
       <c r="D96" s="41"/>
       <c r="E96" s="10"/>
@@ -5116,7 +5120,9 @@
       <c r="H96" s="41"/>
       <c r="I96" s="10"/>
       <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="K96" s="52">
+        <v>45301</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42">
@@ -5278,17 +5284,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5323,7 +5329,7 @@
   </sheetPr>
   <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
       <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
@@ -5356,14 +5362,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5375,14 +5381,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5396,16 +5402,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5438,18 +5444,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
